--- a/Tebu/Luas Areal Tebu Provinsi 2015-2019 (Kementan).xlsx
+++ b/Tebu/Luas Areal Tebu Provinsi 2015-2019 (Kementan).xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\7. Magang\BigProject\Tebu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Visualisasi-Data_Riset\Tebu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6C827B2-B0EF-4DEC-A0AB-F288080A70D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1C2687-C7B4-4E47-9504-06688C5234D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Lokasi</t>
   </si>
@@ -99,14 +90,11 @@
   <si>
     <t>Papua</t>
   </si>
-  <si>
-    <t>Sumber Data : Kementerian Pertanian</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,11 +546,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N238"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1065,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1091,10 +1079,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1108,7 +1093,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1122,7 +1107,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1136,7 +1121,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1150,7 +1135,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1164,7 +1149,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1178,7 +1163,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1192,7 +1177,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1206,7 +1191,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1220,7 +1205,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1234,7 +1219,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1248,7 +1233,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1262,7 +1247,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1276,7 +1261,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1290,7 +1275,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
